--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fndc5-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fndc5-Itgb5.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.420003</v>
+        <v>0.685737</v>
       </c>
       <c r="H2">
-        <v>1.260009</v>
+        <v>2.057211</v>
       </c>
       <c r="I2">
-        <v>0.04059036263460884</v>
+        <v>0.05519567570004053</v>
       </c>
       <c r="J2">
-        <v>0.04059036263460884</v>
+        <v>0.05519567570004053</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.248785666666667</v>
+        <v>3.303267</v>
       </c>
       <c r="N2">
-        <v>21.746357</v>
+        <v>9.909801000000002</v>
       </c>
       <c r="O2">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="P2">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="Q2">
-        <v>3.044511726357</v>
+        <v>2.265172402779001</v>
       </c>
       <c r="R2">
-        <v>27.400605537213</v>
+        <v>20.38655162501101</v>
       </c>
       <c r="S2">
-        <v>0.003203137493829189</v>
+        <v>0.001855989467412493</v>
       </c>
       <c r="T2">
-        <v>0.003203137493829189</v>
+        <v>0.001855989467412493</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.420003</v>
+        <v>0.685737</v>
       </c>
       <c r="H3">
-        <v>1.260009</v>
+        <v>2.057211</v>
       </c>
       <c r="I3">
-        <v>0.04059036263460884</v>
+        <v>0.05519567570004053</v>
       </c>
       <c r="J3">
-        <v>0.04059036263460884</v>
+        <v>0.05519567570004053</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.82684066666666</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N3">
         <v>113.480522</v>
       </c>
       <c r="O3">
-        <v>0.4118010609547572</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="P3">
-        <v>0.4118010609547573</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="Q3">
-        <v>15.887386560522</v>
+        <v>25.939264238238</v>
       </c>
       <c r="R3">
-        <v>142.986479044698</v>
+        <v>233.453378144142</v>
       </c>
       <c r="S3">
-        <v>0.01671515439747025</v>
+        <v>0.02125357043884854</v>
       </c>
       <c r="T3">
-        <v>0.01671515439747026</v>
+        <v>0.02125357043884854</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.420003</v>
+        <v>0.685737</v>
       </c>
       <c r="H4">
-        <v>1.260009</v>
+        <v>2.057211</v>
       </c>
       <c r="I4">
-        <v>0.04059036263460884</v>
+        <v>0.05519567570004053</v>
       </c>
       <c r="J4">
-        <v>0.04059036263460884</v>
+        <v>0.05519567570004053</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.572171666666666</v>
+        <v>9.149395999999999</v>
       </c>
       <c r="N4">
-        <v>25.716515</v>
+        <v>27.448188</v>
       </c>
       <c r="O4">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="P4">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="Q4">
-        <v>3.600337816514999</v>
+        <v>6.274079364852</v>
       </c>
       <c r="R4">
-        <v>32.403040348635</v>
+        <v>56.466714283668</v>
       </c>
       <c r="S4">
-        <v>0.003787923347672474</v>
+        <v>0.005140723595514982</v>
       </c>
       <c r="T4">
-        <v>0.003787923347672474</v>
+        <v>0.005140723595514982</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.420003</v>
+        <v>0.685737</v>
       </c>
       <c r="H5">
-        <v>1.260009</v>
+        <v>2.057211</v>
       </c>
       <c r="I5">
-        <v>0.04059036263460884</v>
+        <v>0.05519567570004053</v>
       </c>
       <c r="J5">
-        <v>0.04059036263460884</v>
+        <v>0.05519567570004053</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>38.20927633333334</v>
+        <v>47.95707433333333</v>
       </c>
       <c r="N5">
-        <v>114.627829</v>
+        <v>143.871223</v>
       </c>
       <c r="O5">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="P5">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="Q5">
-        <v>16.048010687829</v>
+        <v>32.885940282117</v>
       </c>
       <c r="R5">
-        <v>144.432096190461</v>
+        <v>295.973462539053</v>
       </c>
       <c r="S5">
-        <v>0.01688414739563692</v>
+        <v>0.02694539219826452</v>
       </c>
       <c r="T5">
-        <v>0.01688414739563692</v>
+        <v>0.02694539219826452</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>10.700606</v>
       </c>
       <c r="I6">
-        <v>0.3447129964548438</v>
+        <v>0.2871009238089374</v>
       </c>
       <c r="J6">
-        <v>0.3447129964548438</v>
+        <v>0.2871009238089374</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.248785666666667</v>
+        <v>3.303267</v>
       </c>
       <c r="N6">
-        <v>21.746357</v>
+        <v>9.909801000000002</v>
       </c>
       <c r="O6">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="P6">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="Q6">
-        <v>25.85546646581578</v>
+        <v>11.782319559934</v>
       </c>
       <c r="R6">
-        <v>232.699198192342</v>
+        <v>106.040876039406</v>
       </c>
       <c r="S6">
-        <v>0.02720259322377347</v>
+        <v>0.009653949950165988</v>
       </c>
       <c r="T6">
-        <v>0.02720259322377347</v>
+        <v>0.00965394995016599</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>10.700606</v>
       </c>
       <c r="I7">
-        <v>0.3447129964548438</v>
+        <v>0.2871009238089374</v>
       </c>
       <c r="J7">
-        <v>0.3447129964548438</v>
+        <v>0.2871009238089374</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.82684066666666</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N7">
         <v>113.480522</v>
       </c>
       <c r="O7">
-        <v>0.4118010609547572</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="P7">
-        <v>0.4118010609547573</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="Q7">
         <v>134.9233727329258</v>
@@ -883,10 +883,10 @@
         <v>1214.310354596332</v>
       </c>
       <c r="S7">
-        <v>0.1419531776649981</v>
+        <v>0.1105506840860589</v>
       </c>
       <c r="T7">
-        <v>0.1419531776649982</v>
+        <v>0.1105506840860589</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>10.700606</v>
       </c>
       <c r="I8">
-        <v>0.3447129964548438</v>
+        <v>0.2871009238089374</v>
       </c>
       <c r="J8">
-        <v>0.3447129964548438</v>
+        <v>0.2871009238089374</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.572171666666666</v>
+        <v>9.149395999999999</v>
       </c>
       <c r="N8">
-        <v>25.716515</v>
+        <v>27.448188</v>
       </c>
       <c r="O8">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="P8">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="Q8">
-        <v>30.57581052312111</v>
+        <v>32.63469391132533</v>
       </c>
       <c r="R8">
-        <v>275.18229470809</v>
+        <v>293.712245201928</v>
       </c>
       <c r="S8">
-        <v>0.03216887760456009</v>
+        <v>0.02673953121508157</v>
       </c>
       <c r="T8">
-        <v>0.03216887760456009</v>
+        <v>0.02673953121508158</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>10.700606</v>
       </c>
       <c r="I9">
-        <v>0.3447129964548438</v>
+        <v>0.2871009238089374</v>
       </c>
       <c r="J9">
-        <v>0.3447129964548438</v>
+        <v>0.2871009238089374</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>38.20927633333334</v>
+        <v>47.95707433333333</v>
       </c>
       <c r="N9">
-        <v>114.627829</v>
+        <v>143.871223</v>
       </c>
       <c r="O9">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="P9">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="Q9">
-        <v>136.2874705293749</v>
+        <v>171.0565857845709</v>
       </c>
       <c r="R9">
-        <v>1226.587234764374</v>
+        <v>1539.509272061138</v>
       </c>
       <c r="S9">
-        <v>0.1433883479615121</v>
+        <v>0.1401567585576309</v>
       </c>
       <c r="T9">
-        <v>0.1433883479615121</v>
+        <v>0.1401567585576309</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.328214333333332</v>
+        <v>7.915626666666667</v>
       </c>
       <c r="H10">
-        <v>18.984643</v>
+        <v>23.74688</v>
       </c>
       <c r="I10">
-        <v>0.6115778092526231</v>
+        <v>0.6371369234209706</v>
       </c>
       <c r="J10">
-        <v>0.6115778092526231</v>
+        <v>0.6371369234209707</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.248785666666667</v>
+        <v>3.303267</v>
       </c>
       <c r="N10">
-        <v>21.746357</v>
+        <v>9.909801000000002</v>
       </c>
       <c r="O10">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="P10">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="Q10">
-        <v>45.87186935506122</v>
+        <v>26.14742835232001</v>
       </c>
       <c r="R10">
-        <v>412.8468241955511</v>
+        <v>235.32685517088</v>
       </c>
       <c r="S10">
-        <v>0.04826189479619738</v>
+        <v>0.02142413158587446</v>
       </c>
       <c r="T10">
-        <v>0.04826189479619738</v>
+        <v>0.02142413158587446</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.328214333333332</v>
+        <v>7.915626666666667</v>
       </c>
       <c r="H11">
-        <v>18.984643</v>
+        <v>23.74688</v>
       </c>
       <c r="I11">
-        <v>0.6115778092526231</v>
+        <v>0.6371369234209706</v>
       </c>
       <c r="J11">
-        <v>0.6115778092526231</v>
+        <v>0.6371369234209707</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.82684066666666</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N11">
         <v>113.480522</v>
       </c>
       <c r="O11">
-        <v>0.4118010609547572</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="P11">
-        <v>0.4118010609547573</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="Q11">
-        <v>239.3763552915161</v>
+        <v>299.4231486968178</v>
       </c>
       <c r="R11">
-        <v>2154.387197623646</v>
+        <v>2694.80833827136</v>
       </c>
       <c r="S11">
-        <v>0.2518483907066163</v>
+        <v>0.2453350612955518</v>
       </c>
       <c r="T11">
-        <v>0.2518483907066164</v>
+        <v>0.2453350612955519</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.328214333333332</v>
+        <v>7.915626666666667</v>
       </c>
       <c r="H12">
-        <v>18.984643</v>
+        <v>23.74688</v>
       </c>
       <c r="I12">
-        <v>0.6115778092526231</v>
+        <v>0.6371369234209706</v>
       </c>
       <c r="J12">
-        <v>0.6115778092526231</v>
+        <v>0.6371369234209707</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.572171666666666</v>
+        <v>9.149395999999999</v>
       </c>
       <c r="N12">
-        <v>25.716515</v>
+        <v>27.448188</v>
       </c>
       <c r="O12">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="P12">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="Q12">
-        <v>54.24653960879387</v>
+        <v>72.42320296149333</v>
       </c>
       <c r="R12">
-        <v>488.2188564791449</v>
+        <v>651.80882665344</v>
       </c>
       <c r="S12">
-        <v>0.05707290381808923</v>
+        <v>0.0593406054779324</v>
       </c>
       <c r="T12">
-        <v>0.05707290381808923</v>
+        <v>0.05934060547793241</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.328214333333332</v>
+        <v>7.915626666666667</v>
       </c>
       <c r="H13">
-        <v>18.984643</v>
+        <v>23.74688</v>
       </c>
       <c r="I13">
-        <v>0.6115778092526231</v>
+        <v>0.6371369234209706</v>
       </c>
       <c r="J13">
-        <v>0.6115778092526231</v>
+        <v>0.6371369234209707</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>38.20927633333334</v>
+        <v>47.95707433333333</v>
       </c>
       <c r="N13">
-        <v>114.627829</v>
+        <v>143.871223</v>
       </c>
       <c r="O13">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="P13">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="Q13">
-        <v>241.7964901588941</v>
+        <v>379.6102964482489</v>
       </c>
       <c r="R13">
-        <v>2176.168411430047</v>
+        <v>3416.49266803424</v>
       </c>
       <c r="S13">
-        <v>0.2543946199317201</v>
+        <v>0.3110371250616119</v>
       </c>
       <c r="T13">
-        <v>0.2543946199317201</v>
+        <v>0.311037125061612</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.03227166666666666</v>
+        <v>0.2555126666666667</v>
       </c>
       <c r="H14">
-        <v>0.096815</v>
+        <v>0.7665379999999999</v>
       </c>
       <c r="I14">
-        <v>0.003118831657924392</v>
+        <v>0.02056647707005147</v>
       </c>
       <c r="J14">
-        <v>0.003118831657924392</v>
+        <v>0.02056647707005147</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.248785666666667</v>
+        <v>3.303267</v>
       </c>
       <c r="N14">
-        <v>21.746357</v>
+        <v>9.909801000000002</v>
       </c>
       <c r="O14">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="P14">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="Q14">
-        <v>0.2339303947727778</v>
+        <v>0.8440265598820001</v>
       </c>
       <c r="R14">
-        <v>2.105373552955</v>
+        <v>7.596239038938001</v>
       </c>
       <c r="S14">
-        <v>0.0002461186836483493</v>
+        <v>0.0006915607851462185</v>
       </c>
       <c r="T14">
-        <v>0.0002461186836483493</v>
+        <v>0.0006915607851462185</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.03227166666666666</v>
+        <v>0.2555126666666667</v>
       </c>
       <c r="H15">
-        <v>0.096815</v>
+        <v>0.7665379999999999</v>
       </c>
       <c r="I15">
-        <v>0.003118831657924392</v>
+        <v>0.02056647707005147</v>
       </c>
       <c r="J15">
-        <v>0.003118831657924392</v>
+        <v>0.02056647707005147</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>37.82684066666666</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N15">
         <v>113.480522</v>
       </c>
       <c r="O15">
-        <v>0.4118010609547572</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="P15">
-        <v>0.4118010609547573</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="Q15">
-        <v>1.220735193047777</v>
+        <v>9.665236930315112</v>
       </c>
       <c r="R15">
-        <v>10.98661673743</v>
+        <v>86.987132372836</v>
       </c>
       <c r="S15">
-        <v>0.001284338185672549</v>
+        <v>0.007919299175949418</v>
       </c>
       <c r="T15">
-        <v>0.001284338185672549</v>
+        <v>0.007919299175949418</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.03227166666666666</v>
+        <v>0.2555126666666667</v>
       </c>
       <c r="H16">
-        <v>0.096815</v>
+        <v>0.7665379999999999</v>
       </c>
       <c r="I16">
-        <v>0.003118831657924392</v>
+        <v>0.02056647707005147</v>
       </c>
       <c r="J16">
-        <v>0.003118831657924392</v>
+        <v>0.02056647707005147</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.572171666666666</v>
+        <v>9.149395999999999</v>
       </c>
       <c r="N16">
-        <v>25.716515</v>
+        <v>27.448188</v>
       </c>
       <c r="O16">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="P16">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="Q16">
-        <v>0.2766382666361111</v>
+        <v>2.337786570349333</v>
       </c>
       <c r="R16">
-        <v>2.489744399725</v>
+        <v>21.040079133144</v>
       </c>
       <c r="S16">
-        <v>0.0002910517297137644</v>
+        <v>0.001915486541467483</v>
       </c>
       <c r="T16">
-        <v>0.0002910517297137644</v>
+        <v>0.001915486541467483</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.03227166666666666</v>
+        <v>0.2555126666666667</v>
       </c>
       <c r="H17">
-        <v>0.096815</v>
+        <v>0.7665379999999999</v>
       </c>
       <c r="I17">
-        <v>0.003118831657924392</v>
+        <v>0.02056647707005147</v>
       </c>
       <c r="J17">
-        <v>0.003118831657924392</v>
+        <v>0.02056647707005147</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>38.20927633333334</v>
+        <v>47.95707433333333</v>
       </c>
       <c r="N17">
-        <v>114.627829</v>
+        <v>143.871223</v>
       </c>
       <c r="O17">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="P17">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="Q17">
-        <v>1.233077029403889</v>
+        <v>12.25363994844155</v>
       </c>
       <c r="R17">
-        <v>11.097693264635</v>
+        <v>110.282759535974</v>
       </c>
       <c r="S17">
-        <v>0.001297323058889729</v>
+        <v>0.01004013056748835</v>
       </c>
       <c r="T17">
-        <v>0.001297323058889729</v>
+        <v>0.01004013056748835</v>
       </c>
     </row>
   </sheetData>
